--- a/result/bus_init.xlsx
+++ b/result/bus_init.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,10 +414,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>12.01845881132335</v>
+        <v>12.07290376209627</v>
       </c>
       <c r="E2">
-        <v>-18.23355484588437</v>
+        <v>-12.72980423353533</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.000182826744022</v>
+        <v>1.000576128978829</v>
       </c>
       <c r="C3">
-        <v>0.1759337841945885</v>
+        <v>0.1376636688891406</v>
       </c>
       <c r="D3">
-        <v>-3.947939197779249e-12</v>
+        <v>-5.939637670593356e-12</v>
       </c>
       <c r="E3">
-        <v>-31.92966410664835</v>
+        <v>-78.76799874964597</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.000182826744022</v>
+        <v>1.000576128978829</v>
       </c>
       <c r="C4">
-        <v>0.1759337841945885</v>
+        <v>0.1376636688891406</v>
       </c>
       <c r="D4">
-        <v>-3.947939197779249e-12</v>
+        <v>-5.939637670593356e-12</v>
       </c>
       <c r="E4">
-        <v>-31.92966410664835</v>
+        <v>-78.76799874964597</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -462,13 +462,13 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.1991901664816307</v>
+        <v>0.2044576623006597</v>
       </c>
       <c r="D5">
-        <v>-5.144079606722585e-13</v>
+        <v>8.793549222119168e-12</v>
       </c>
       <c r="E5">
-        <v>26.28399512767708</v>
+        <v>42.60159622249701</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -479,13 +479,13 @@
         <v>1.000450150037181</v>
       </c>
       <c r="C6">
-        <v>0.1519034486931664</v>
+        <v>0.1569325374952375</v>
       </c>
       <c r="D6">
-        <v>-0.04900000000181377</v>
+        <v>-0.04899999998470346</v>
       </c>
       <c r="E6">
-        <v>-38.62975339654385</v>
+        <v>-38.62972680631047</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -496,13 +496,13 @@
         <v>0.999969578776834</v>
       </c>
       <c r="C7">
-        <v>0.2082194206992183</v>
+        <v>0.2130100238375115</v>
       </c>
       <c r="D7">
-        <v>-6.57554566352303e-12</v>
+        <v>5.012379400426425e-13</v>
       </c>
       <c r="E7">
-        <v>20.12873828222477</v>
+        <v>20.12892978337027</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -513,13 +513,13 @@
         <v>0.9999272134207779</v>
       </c>
       <c r="C8">
-        <v>0.2155397338640424</v>
+        <v>0.2200912125242107</v>
       </c>
       <c r="D8">
-        <v>4.160692623766948e-12</v>
+        <v>2.17487139408945e-12</v>
       </c>
       <c r="E8">
-        <v>14.33174870641506</v>
+        <v>14.3316918913631</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -530,13 +530,13 @@
         <v>1.0001722774035</v>
       </c>
       <c r="C9">
-        <v>0.1896687781468159</v>
+        <v>0.1939813332929276</v>
       </c>
       <c r="D9">
-        <v>-0.0412999999911086</v>
+        <v>-0.04129999999993823</v>
       </c>
       <c r="E9">
-        <v>-18.01462035506902</v>
+        <v>-18.01463148514754</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9999821177386031</v>
+        <v>0.999982117738603</v>
       </c>
       <c r="C10">
-        <v>0.2121014250240501</v>
+        <v>0.2161750996587256</v>
       </c>
       <c r="D10">
-        <v>9.568665304549029e-12</v>
+        <v>9.631795361286777e-12</v>
       </c>
       <c r="E10">
-        <v>24.12690810604779</v>
+        <v>24.12684109032308</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -564,13 +564,13 @@
         <v>1.0003890011149</v>
       </c>
       <c r="C11">
-        <v>0.1677135002605735</v>
+        <v>0.1715485259414439</v>
       </c>
       <c r="D11">
-        <v>-0.03289999999937761</v>
+        <v>-0.0164499999945687</v>
       </c>
       <c r="E11">
-        <v>-7.762499933154643</v>
+        <v>-7.794703267963361</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -581,13 +581,13 @@
         <v>1.0006079876945</v>
       </c>
       <c r="C12">
-        <v>0.1441284226928434</v>
+        <v>0.1478339838914998</v>
       </c>
       <c r="D12">
-        <v>-0.03920000000231941</v>
+        <v>-0.01960000000266607</v>
       </c>
       <c r="E12">
-        <v>-32.28487335477239</v>
+        <v>-32.32307560990253</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -598,13 +598,13 @@
         <v>1.00004932794153</v>
       </c>
       <c r="C13">
-        <v>0.2071044903199248</v>
+        <v>0.2108100515186774</v>
       </c>
       <c r="D13">
-        <v>-3.39422934203526e-13</v>
+        <v>-1.218816714221305e-12</v>
       </c>
       <c r="E13">
-        <v>21.99854282522594</v>
+        <v>21.99854282527616</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -615,13 +615,13 @@
         <v>1.00002375201704</v>
       </c>
       <c r="C14">
-        <v>0.2104373435114723</v>
+        <v>0.2141429047102356</v>
       </c>
       <c r="D14">
-        <v>-0.03640000000019146</v>
+        <v>-0.03640000001003585</v>
       </c>
       <c r="E14">
-        <v>-4.110341099554611</v>
+        <v>-4.110341099559086</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -632,13 +632,13 @@
         <v>1.0000150924645</v>
       </c>
       <c r="C15">
-        <v>0.1862371308012592</v>
+        <v>0.1910277339396018</v>
       </c>
       <c r="D15">
-        <v>-0.02939999999957422</v>
+        <v>-0.02940000000043767</v>
       </c>
       <c r="E15">
-        <v>-1.885533506338952</v>
+        <v>-1.885533506334796</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,13 +649,13 @@
         <v>1.00001883173377</v>
       </c>
       <c r="C16">
-        <v>0.1877525631346255</v>
+        <v>0.1923040417943302</v>
       </c>
       <c r="D16">
-        <v>-0.03009999999932446</v>
+        <v>-0.03009999999861179</v>
       </c>
       <c r="E16">
-        <v>-5.152037276251594</v>
+        <v>-5.152037276254972</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>0.9999774616845741</v>
       </c>
       <c r="C17">
-        <v>0.2301117105228341</v>
+        <v>0.234663189182123</v>
       </c>
       <c r="D17">
-        <v>-0.04900000000066494</v>
+        <v>-0.04900000000019385</v>
       </c>
       <c r="E17">
-        <v>2.162383820230712</v>
+        <v>2.162383820227627</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,13 +683,13 @@
         <v>0.999977718681453</v>
       </c>
       <c r="C18">
-        <v>0.2429440376621503</v>
+        <v>0.2474955163210651</v>
       </c>
       <c r="D18">
-        <v>-0.04829999999823373</v>
+        <v>-0.04829999999854909</v>
       </c>
       <c r="E18">
-        <v>1.595506403922029</v>
+        <v>1.595506403904442</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,13 +700,13 @@
         <v>1.00000163201113</v>
       </c>
       <c r="C19">
-        <v>0.2352537205116067</v>
+        <v>0.2398051991704088</v>
       </c>
       <c r="D19">
-        <v>-0.04900000000030379</v>
+        <v>-0.04899999999909199</v>
       </c>
       <c r="E19">
-        <v>-0.6636235815269866</v>
+        <v>-0.6636235815365727</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -717,13 +717,13 @@
         <v>0.99997497883425</v>
       </c>
       <c r="C20">
-        <v>0.2208748539543989</v>
+        <v>0.224948528588967</v>
       </c>
       <c r="D20">
-        <v>-0.04199999999944974</v>
+        <v>-0.04199999999882226</v>
       </c>
       <c r="E20">
-        <v>0.7469843803373876</v>
+        <v>0.7469843803282021</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,13 +734,13 @@
         <v>1.0000534779554</v>
       </c>
       <c r="C21">
-        <v>0.2096060876888936</v>
+        <v>0.2133116488873963</v>
       </c>
       <c r="D21">
-        <v>-0.04199999999939872</v>
+        <v>-0.04199999999909546</v>
       </c>
       <c r="E21">
-        <v>0.2099276368049525</v>
+        <v>0.2099276367836996</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -751,13 +751,13 @@
         <v>0.99992012441745</v>
       </c>
       <c r="C22">
-        <v>0.2725414743690522</v>
+        <v>0.2762470355678908</v>
       </c>
       <c r="D22">
-        <v>-0.04200000000059781</v>
+        <v>-0.04200000000103171</v>
       </c>
       <c r="E22">
-        <v>5.313884845136113</v>
+        <v>5.313884845142469</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.000182826744022</v>
+        <v>1.000576128978829</v>
       </c>
       <c r="C23">
-        <v>0.1759337841945885</v>
+        <v>0.1376636688891406</v>
       </c>
       <c r="D23">
-        <v>-3.947939197779249e-12</v>
+        <v>-5.939637670593356e-12</v>
       </c>
       <c r="E23">
-        <v>-31.92966410664835</v>
+        <v>-78.76799874964597</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -785,13 +785,13 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0.8004434841176232</v>
+        <v>0.831787560552785</v>
       </c>
       <c r="D24">
-        <v>9.08766117913018e-13</v>
+        <v>-4.555941127831753e-13</v>
       </c>
       <c r="E24">
-        <v>-2.70111216069468</v>
+        <v>0.08710609574487893</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -802,13 +802,13 @@
         <v>0.999769900723529</v>
       </c>
       <c r="C25">
-        <v>1.250052794044847</v>
+        <v>1.281396870480037</v>
       </c>
       <c r="D25">
-        <v>-6.999999999998923</v>
+        <v>-7.000000000000267</v>
       </c>
       <c r="E25">
-        <v>23.99790724394615</v>
+        <v>23.9979072439476</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -819,13 +819,13 @@
         <v>0.999779008807556</v>
       </c>
       <c r="C26">
-        <v>1.043319867573287</v>
+        <v>1.074663944008463</v>
       </c>
       <c r="D26">
-        <v>3.456401831414269e-13</v>
+        <v>5.622065313293234e-13</v>
       </c>
       <c r="E26">
-        <v>1.443378940528881</v>
+        <v>1.443378940528925</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.000182826744022</v>
+        <v>1.000576128978829</v>
       </c>
       <c r="C27">
-        <v>0.1759337841945885</v>
+        <v>0.1376636688891406</v>
       </c>
       <c r="D27">
-        <v>-3.947939197779249e-12</v>
+        <v>-5.939637670593356e-12</v>
       </c>
       <c r="E27">
-        <v>-31.92966410664835</v>
+        <v>-78.76799874964597</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -853,13 +853,13 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>0.2901531174317262</v>
+        <v>0.2905789391187074</v>
       </c>
       <c r="D28">
-        <v>2.827512529668397e-13</v>
+        <v>3.599707337764713e-12</v>
       </c>
       <c r="E28">
-        <v>-1.714656255089531</v>
+        <v>3.834911898674092</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -870,13 +870,13 @@
         <v>0.9997005556993189</v>
       </c>
       <c r="C29">
-        <v>0.4164078277486218</v>
+        <v>0.4168336494355581</v>
       </c>
       <c r="D29">
-        <v>-0.4000000000032242</v>
+        <v>-0.400000000000647</v>
       </c>
       <c r="E29">
-        <v>3.788409000957323</v>
+        <v>3.788409000954203</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -887,13 +887,13 @@
         <v>0.9996237209868073</v>
       </c>
       <c r="C30">
-        <v>0.51461172695614</v>
+        <v>0.5150375486430605</v>
       </c>
       <c r="D30">
-        <v>-0.4000000000014483</v>
+        <v>-0.4000000000011875</v>
       </c>
       <c r="E30">
-        <v>8.045616502352994</v>
+        <v>8.045616502358444</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -904,13 +904,13 @@
         <v>1.000298092425485</v>
       </c>
       <c r="C31">
-        <v>0.5095199521239345</v>
+        <v>0.5099457738108349</v>
       </c>
       <c r="D31">
-        <v>-0.399999999996886</v>
+        <v>-0.3999999999961775</v>
       </c>
       <c r="E31">
-        <v>-9.425870143470062</v>
+        <v>-9.425870143470886</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -921,13 +921,13 @@
         <v>1.000259107248877</v>
       </c>
       <c r="C32">
-        <v>0.5686164614326106</v>
+        <v>0.5690422831194921</v>
       </c>
       <c r="D32">
-        <v>-0.4000000000001351</v>
+        <v>-0.3999999999966525</v>
       </c>
       <c r="E32">
-        <v>2.159019653868522</v>
+        <v>2.159019653864826</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -938,13 +938,13 @@
         <v>1.000312369854601</v>
       </c>
       <c r="C33">
-        <v>0.600687623067515</v>
+        <v>0.6011134447544257</v>
       </c>
       <c r="D33">
-        <v>-0.4000000000029595</v>
+        <v>-0.4000000000006811</v>
       </c>
       <c r="E33">
-        <v>4.041312441562912</v>
+        <v>4.041312441562886</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -955,13 +955,13 @@
         <v>1.000602215656172</v>
       </c>
       <c r="C34">
-        <v>0.6029292653296888</v>
+        <v>0.6033550870166391</v>
       </c>
       <c r="D34">
-        <v>-0.3999999999994054</v>
+        <v>-0.4000000000000372</v>
       </c>
       <c r="E34">
-        <v>-18.39828403207915</v>
+        <v>-18.39828403207837</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -972,13 +972,13 @@
         <v>0.9995479719766737</v>
       </c>
       <c r="C35">
-        <v>0.7320457209905529</v>
+        <v>0.7324715426775374</v>
       </c>
       <c r="D35">
-        <v>-0.400000000000477</v>
+        <v>-0.4000000000013265</v>
       </c>
       <c r="E35">
-        <v>20.24564163673289</v>
+        <v>20.24564163673316</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -989,13 +989,13 @@
         <v>1.000024771832484</v>
       </c>
       <c r="C36">
-        <v>0.6955768577506038</v>
+        <v>0.6960026794376041</v>
       </c>
       <c r="D36">
-        <v>-0.3999999999977882</v>
+        <v>-0.3999999999976575</v>
       </c>
       <c r="E36">
-        <v>-13.68278629376332</v>
+        <v>-13.68278629376014</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1006,13 +1006,13 @@
         <v>0.9996328653931441</v>
       </c>
       <c r="C37">
-        <v>0.6278231624494865</v>
+        <v>0.6282489841363084</v>
       </c>
       <c r="D37">
-        <v>-0.4000000000013995</v>
+        <v>-0.400000000000958</v>
       </c>
       <c r="E37">
-        <v>13.2657996600567</v>
+        <v>13.26579966005612</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1023,13 +1023,13 @@
         <v>0.999572795205926</v>
       </c>
       <c r="C38">
-        <v>0.6718761658551434</v>
+        <v>0.6723019875419181</v>
       </c>
       <c r="D38">
-        <v>5.936640068426868e-13</v>
+        <v>1.764394186309914e-12</v>
       </c>
       <c r="E38">
-        <v>9.413262923229015</v>
+        <v>9.413262923228483</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1040,13 +1040,13 @@
         <v>0.9996900346867544</v>
       </c>
       <c r="C39">
-        <v>0.7023685810105719</v>
+        <v>0.7027944026973075</v>
       </c>
       <c r="D39">
-        <v>-0.4000000000004303</v>
+        <v>-0.400000000000431</v>
       </c>
       <c r="E39">
-        <v>0.9972776178848827</v>
+        <v>0.9972776178835627</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1057,13 +1057,13 @@
         <v>1.000240558966567</v>
       </c>
       <c r="C40">
-        <v>0.4380918334302486</v>
+        <v>0.4385176551170139</v>
       </c>
       <c r="D40">
-        <v>-3.356759314954161e-13</v>
+        <v>5.095923683029469e-14</v>
       </c>
       <c r="E40">
-        <v>-8.158931199503421</v>
+        <v>-8.158931199503694</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1074,13 +1074,13 @@
         <v>1.000786197009713</v>
       </c>
       <c r="C41">
-        <v>0.3491971456160359</v>
+        <v>0.3496229673028013</v>
       </c>
       <c r="D41">
-        <v>-0.7000000000003377</v>
+        <v>-0.6999999999999187</v>
       </c>
       <c r="E41">
-        <v>-9.845792622316438</v>
+        <v>-9.845792622318335</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1091,13 +1091,13 @@
         <v>1.000408788243711</v>
       </c>
       <c r="C42">
-        <v>0.5918652678554963</v>
+        <v>0.592291089542346</v>
       </c>
       <c r="D42">
-        <v>-0.3999999999990478</v>
+        <v>-0.3999999999994864</v>
       </c>
       <c r="E42">
-        <v>-10.19371130812836</v>
+        <v>-10.19371130812764</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1108,13 +1108,13 @@
         <v>1.000475545840635</v>
       </c>
       <c r="C43">
-        <v>0.575351053230723</v>
+        <v>0.5757768749175435</v>
       </c>
       <c r="D43">
-        <v>-1.412689409896473e-13</v>
+        <v>6.843345334850426e-13</v>
       </c>
       <c r="E43">
-        <v>-5.233707496099059</v>
+        <v>-5.233707496099759</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1125,13 +1125,13 @@
         <v>0.9995848131452152</v>
       </c>
       <c r="C44">
-        <v>0.9411589663027229</v>
+        <v>0.9415847879895435</v>
       </c>
       <c r="D44">
-        <v>-0.4000000000000592</v>
+        <v>-0.3999999999995907</v>
       </c>
       <c r="E44">
-        <v>12.12598671275376</v>
+        <v>12.12598671275279</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1142,13 +1142,13 @@
         <v>1.00011238767836</v>
       </c>
       <c r="C45">
-        <v>0.6999965932639486</v>
+        <v>0.70042241495075</v>
       </c>
       <c r="D45">
-        <v>1.947331185192525e-13</v>
+        <v>-1.227143386905993e-13</v>
       </c>
       <c r="E45">
-        <v>4.353433053440395</v>
+        <v>4.353433053439674</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1159,13 +1159,13 @@
         <v>0.9995529982161122</v>
       </c>
       <c r="C46">
-        <v>0.8187781386554709</v>
+        <v>0.8192039603424677</v>
       </c>
       <c r="D46">
-        <v>-0.4999999999998886</v>
+        <v>-0.5000000000000641</v>
       </c>
       <c r="E46">
-        <v>2.94187720388926</v>
+        <v>2.941877203889639</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1176,13 +1176,13 @@
         <v>0.9994972100534636</v>
       </c>
       <c r="C47">
-        <v>0.9283655370658629</v>
+        <v>0.9287913587528356</v>
       </c>
       <c r="D47">
-        <v>-0.299999999999896</v>
+        <v>-0.300000000000324</v>
       </c>
       <c r="E47">
-        <v>8.072087075544692</v>
+        <v>8.072087075543642</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.000182826744022</v>
+        <v>1.000576128978829</v>
       </c>
       <c r="C48">
-        <v>0.1759337841945885</v>
+        <v>0.1376636688891406</v>
       </c>
       <c r="D48">
-        <v>-3.947939197779249e-12</v>
+        <v>-5.939637670593356e-12</v>
       </c>
       <c r="E48">
-        <v>-31.92966410664835</v>
+        <v>-78.76799874964597</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9999999999999829</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C49">
-        <v>0.1905815257180109</v>
+        <v>0.197406454793766</v>
       </c>
       <c r="D49">
-        <v>-1.384337089405108e-12</v>
+        <v>7.415290603773883e-12</v>
       </c>
       <c r="E49">
-        <v>57.60424545418332</v>
+        <v>73.92786504210352</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.001206498394237</v>
+        <v>1.00120649839424</v>
       </c>
       <c r="C50">
-        <v>0.05074165958690437</v>
+        <v>0.05886530115692676</v>
       </c>
       <c r="D50">
-        <v>5.713964024156581e-11</v>
+        <v>2.187389158692099e-12</v>
       </c>
       <c r="E50">
-        <v>-124.0203597887501</v>
+        <v>-124.0203353453325</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.00068459744101</v>
+        <v>1.000684597441013</v>
       </c>
       <c r="C51">
-        <v>0.1063815134902337</v>
+        <v>0.114505155060212</v>
       </c>
       <c r="D51">
-        <v>-0.01749999999607637</v>
+        <v>-0.0175000000013306</v>
       </c>
       <c r="E51">
-        <v>-15.022367940461</v>
+        <v>-15.02236794054997</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.9998024699881747</v>
+        <v>0.999802469988175</v>
       </c>
       <c r="C52">
-        <v>0.202388622219718</v>
+        <v>0.2105122637898938</v>
       </c>
       <c r="D52">
-        <v>-0.01500000001807289</v>
+        <v>-0.01499999999830991</v>
       </c>
       <c r="E52">
-        <v>18.6391835266331</v>
+        <v>18.63918352680163</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9993700281922647</v>
+        <v>0.9993700281922667</v>
       </c>
       <c r="C53">
-        <v>0.2484163931765443</v>
+        <v>0.2565400347464802</v>
       </c>
       <c r="D53">
-        <v>-0.01999999999779728</v>
+        <v>-0.02000000001163854</v>
       </c>
       <c r="E53">
-        <v>78.54328631283599</v>
+        <v>78.54328631254776</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.000832538700583</v>
+        <v>1.00083253870058</v>
       </c>
       <c r="C54">
-        <v>0.08353449967094459</v>
+        <v>0.09165814124140363</v>
       </c>
       <c r="D54">
-        <v>-0.02000000000391142</v>
+        <v>-0.01999999999447077</v>
       </c>
       <c r="E54">
-        <v>-128.7575553462939</v>
+        <v>-128.7575553459564</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9992071060924111</v>
+        <v>0.9992071060924113</v>
       </c>
       <c r="C55">
-        <v>0.2642801528001242</v>
+        <v>0.2724037943702069</v>
       </c>
       <c r="D55">
-        <v>-0.01750000000802732</v>
+        <v>-0.01750000000288104</v>
       </c>
       <c r="E55">
-        <v>67.31405733129958</v>
+        <v>67.31405733116078</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9999601175541526</v>
+        <v>0.9999601175541516</v>
       </c>
       <c r="C56">
-        <v>0.1878046304213616</v>
+        <v>0.1972269706518597</v>
       </c>
       <c r="D56">
-        <v>-0.02249999998787947</v>
+        <v>-0.02249999999966557</v>
       </c>
       <c r="E56">
-        <v>70.40754059925463</v>
+        <v>70.40611882141889</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.000410459904277</v>
+        <v>1.00041045990427</v>
       </c>
       <c r="C57">
-        <v>0.1359817218617759</v>
+        <v>0.1467076067571122</v>
       </c>
       <c r="D57">
-        <v>-0.03250000001752418</v>
+        <v>-0.03250000000020881</v>
       </c>
       <c r="E57">
-        <v>-31.15124978824641</v>
+        <v>-31.15093935525048</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.000110460370637</v>
+        <v>1.000110460370631</v>
       </c>
       <c r="C58">
-        <v>0.1677147623858164</v>
+        <v>0.1797431626447225</v>
       </c>
       <c r="D58">
-        <v>-0.007499999995373891</v>
+        <v>-0.007500000006052859</v>
       </c>
       <c r="E58">
-        <v>-8.507611603944076</v>
+        <v>-8.508929018190829</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9996780051435354</v>
+        <v>0.9996780051435382</v>
       </c>
       <c r="C59">
-        <v>0.214508301021781</v>
+        <v>0.2276569936405029</v>
       </c>
       <c r="D59">
-        <v>-0.02499999999872415</v>
+        <v>-0.02500000000092883</v>
       </c>
       <c r="E59">
-        <v>49.22462744559819</v>
+        <v>49.22511583772375</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.000358636228653</v>
+        <v>1.00035863622865</v>
       </c>
       <c r="C60">
-        <v>0.1368967150603687</v>
+        <v>0.1513507806994151</v>
       </c>
       <c r="D60">
-        <v>-1.485850331661709e-11</v>
+        <v>-1.013011896588978e-11</v>
       </c>
       <c r="E60">
-        <v>-45.15927810101956</v>
+        <v>-45.15811503187125</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.000028689684346</v>
+        <v>1.000028689684344</v>
       </c>
       <c r="C61">
-        <v>0.1734772601565864</v>
+        <v>0.1879313257955858</v>
       </c>
       <c r="D61">
-        <v>-0.006124999994732386</v>
+        <v>-0.006125000003764453</v>
       </c>
       <c r="E61">
-        <v>37.89464343616971</v>
+        <v>37.89464343639808</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.000611256876386</v>
+        <v>1.00061125687639</v>
       </c>
       <c r="C62">
-        <v>0.1083636801042247</v>
+        <v>0.1228177457425403</v>
       </c>
       <c r="D62">
-        <v>-0.0087500000074094</v>
+        <v>-0.008750000003525063</v>
       </c>
       <c r="E62">
-        <v>-48.8366918190934</v>
+        <v>-48.83669181944694</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.000104495842715</v>
+        <v>1.000104495842717</v>
       </c>
       <c r="C63">
-        <v>0.1648535207133366</v>
+        <v>0.1793075863518792</v>
       </c>
       <c r="D63">
-        <v>-0.007699999994443998</v>
+        <v>-0.007699999997922563</v>
       </c>
       <c r="E63">
-        <v>24.5605218417456</v>
+        <v>24.56052184184449</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.000294595884544</v>
+        <v>1.000294595884545</v>
       </c>
       <c r="C64">
-        <v>0.142924372306268</v>
+        <v>0.1584939635842617</v>
       </c>
       <c r="D64">
-        <v>-0.006125000019472066</v>
+        <v>-0.006125000012687867</v>
       </c>
       <c r="E64">
-        <v>-0.7901073040073513</v>
+        <v>-0.7903543391694203</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.000214030884972</v>
+        <v>1.000214030884968</v>
       </c>
       <c r="C65">
-        <v>0.1507630162363515</v>
+        <v>0.1674488626477279</v>
       </c>
       <c r="D65">
-        <v>-0.007175000004304724</v>
+        <v>-0.007174999983136303</v>
       </c>
       <c r="E65">
-        <v>21.40313235732473</v>
+        <v>21.40366652823681</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1496,50 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.00057485963654</v>
+        <v>1.000574859636538</v>
       </c>
       <c r="C66">
-        <v>0.1093747578958573</v>
+        <v>0.1271753187263969</v>
       </c>
       <c r="D66">
-        <v>-0.006299999999965361</v>
+        <v>4.629102656750206e-12</v>
       </c>
       <c r="E66">
-        <v>-54.16003896967319</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>0.9998201732259927</v>
-      </c>
-      <c r="C67">
-        <v>0.1925521633134086</v>
-      </c>
-      <c r="D67">
-        <v>-0.007000000011502749</v>
-      </c>
-      <c r="E67">
-        <v>98.79899864127981</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>1.00110782518556</v>
-      </c>
-      <c r="C68">
-        <v>0.04852130583765189</v>
-      </c>
-      <c r="D68">
-        <v>-3.200287257421053e-12</v>
-      </c>
-      <c r="E68">
-        <v>-62.64469638784443</v>
+        <v>-17.51413970354078</v>
       </c>
     </row>
   </sheetData>

--- a/result/bus_init.xlsx
+++ b/result/bus_init.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.000000000000023</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>12.07290376209627</v>
+        <v>12.9518182153464</v>
       </c>
       <c r="E2">
-        <v>-12.72980423353533</v>
+        <v>-13.91692037604958</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.000576128978829</v>
+        <v>1.000599999999979</v>
       </c>
       <c r="C3">
-        <v>0.1376636688891406</v>
+        <v>0.1494997929456079</v>
       </c>
       <c r="D3">
-        <v>-5.939637670593356e-12</v>
+        <v>-6.804032892659961e-10</v>
       </c>
       <c r="E3">
-        <v>-78.76799874964597</v>
+        <v>-81.82204788025294</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.000576128978829</v>
+        <v>1.000599999999979</v>
       </c>
       <c r="C4">
-        <v>0.1376636688891406</v>
+        <v>0.1494997929456079</v>
       </c>
       <c r="D4">
-        <v>-5.939637670593356e-12</v>
+        <v>-6.804032892659961e-10</v>
       </c>
       <c r="E4">
-        <v>-78.76799874964597</v>
+        <v>-81.82204788025294</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="C5">
-        <v>0.2044576623006597</v>
+        <v>0.2189475394097234</v>
       </c>
       <c r="D5">
-        <v>8.793549222119168e-12</v>
+        <v>-8.609224444455776e-13</v>
       </c>
       <c r="E5">
-        <v>42.60159622249701</v>
+        <v>43.59119939151923</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.000450150037181</v>
+        <v>1.000450150037185</v>
       </c>
       <c r="C6">
-        <v>0.1569325374952375</v>
+        <v>0.1714224146058856</v>
       </c>
       <c r="D6">
-        <v>-0.04899999998470346</v>
+        <v>-0.04899999999648562</v>
       </c>
       <c r="E6">
-        <v>-38.62972680631047</v>
+        <v>-38.62972680574185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.999969578776834</v>
+        <v>0.9999695787768388</v>
       </c>
       <c r="C7">
-        <v>0.2130100238375115</v>
+        <v>0.227499900948209</v>
       </c>
       <c r="D7">
-        <v>5.012379400426425e-13</v>
+        <v>-1.960029361036675e-12</v>
       </c>
       <c r="E7">
-        <v>20.12892978337027</v>
+        <v>20.12892978089425</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9999272134207779</v>
+        <v>0.9999272134206989</v>
       </c>
       <c r="C8">
-        <v>0.2200912125242107</v>
+        <v>0.2345810896443885</v>
       </c>
       <c r="D8">
-        <v>2.17487139408945e-12</v>
+        <v>-6.55160647955455e-12</v>
       </c>
       <c r="E8">
-        <v>14.3316918913631</v>
+        <v>14.33169189917605</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.0001722774035</v>
+        <v>1.000172277403482</v>
       </c>
       <c r="C9">
-        <v>0.1939813332929276</v>
+        <v>0.2084712104063883</v>
       </c>
       <c r="D9">
-        <v>-0.04129999999993823</v>
+        <v>-0.04130000000444532</v>
       </c>
       <c r="E9">
-        <v>-18.01463148514754</v>
+        <v>-18.01463148657798</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.999982117738603</v>
+        <v>0.9999821177386103</v>
       </c>
       <c r="C10">
-        <v>0.2161750996587256</v>
+        <v>0.2306649767693044</v>
       </c>
       <c r="D10">
-        <v>9.631795361286777e-12</v>
+        <v>2.526329145879913e-11</v>
       </c>
       <c r="E10">
-        <v>24.12684109032308</v>
+        <v>24.12684108810313</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.0003890011149</v>
+        <v>1.000389001114892</v>
       </c>
       <c r="C11">
-        <v>0.1715485259414439</v>
+        <v>0.1860384030537106</v>
       </c>
       <c r="D11">
-        <v>-0.0164499999945687</v>
+        <v>-0.01644999999885582</v>
       </c>
       <c r="E11">
-        <v>-7.794703267963361</v>
+        <v>-7.794703266869609</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.0006079876945</v>
+        <v>1.000607987694504</v>
       </c>
       <c r="C12">
-        <v>0.1478339838914998</v>
+        <v>0.1623238610025166</v>
       </c>
       <c r="D12">
-        <v>-0.01960000000266607</v>
+        <v>-0.01960000001322637</v>
       </c>
       <c r="E12">
-        <v>-32.32307560990253</v>
+        <v>-32.32307561087495</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.00004932794153</v>
+        <v>1.000049327941521</v>
       </c>
       <c r="C13">
-        <v>0.2108100515186774</v>
+        <v>0.2252999286310448</v>
       </c>
       <c r="D13">
-        <v>-1.218816714221305e-12</v>
+        <v>8.478218127550008e-13</v>
       </c>
       <c r="E13">
-        <v>21.99854282527616</v>
+        <v>21.99854282538907</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.00002375201704</v>
+        <v>1.000023752017013</v>
       </c>
       <c r="C14">
-        <v>0.2141429047102356</v>
+        <v>0.2286327818246822</v>
       </c>
       <c r="D14">
-        <v>-0.03640000001003585</v>
+        <v>-0.03639999999487682</v>
       </c>
       <c r="E14">
-        <v>-4.110341099559086</v>
+        <v>-4.110341096483543</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.0000150924645</v>
+        <v>1.000015092464526</v>
       </c>
       <c r="C15">
-        <v>0.1910277339396018</v>
+        <v>0.2055176110382032</v>
       </c>
       <c r="D15">
-        <v>-0.02940000000043767</v>
+        <v>-0.02940000000018941</v>
       </c>
       <c r="E15">
-        <v>-1.885533506334796</v>
+        <v>-1.885533507370745</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.00001883173377</v>
+        <v>1.000018831733736</v>
       </c>
       <c r="C16">
-        <v>0.1923040417943302</v>
+        <v>0.2067939188901947</v>
       </c>
       <c r="D16">
-        <v>-0.03009999999861179</v>
+        <v>-0.03009999999644071</v>
       </c>
       <c r="E16">
-        <v>-5.152037276254972</v>
+        <v>-5.152037274573039</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9999774616845741</v>
+        <v>0.9999774616846271</v>
       </c>
       <c r="C17">
-        <v>0.234663189182123</v>
+        <v>0.2491530662307657</v>
       </c>
       <c r="D17">
-        <v>-0.04900000000019385</v>
+        <v>-0.04900000000297691</v>
       </c>
       <c r="E17">
-        <v>2.162383820227627</v>
+        <v>2.162383814530362</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.999977718681453</v>
+        <v>0.9999777186814519</v>
       </c>
       <c r="C18">
-        <v>0.2474955163210651</v>
+        <v>0.2619853934001002</v>
       </c>
       <c r="D18">
-        <v>-0.04829999999854909</v>
+        <v>-0.04829999999852769</v>
       </c>
       <c r="E18">
-        <v>1.595506403904442</v>
+        <v>1.595506407077778</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.00000163201113</v>
+        <v>1.000001632011149</v>
       </c>
       <c r="C19">
-        <v>0.2398051991704088</v>
+        <v>0.254295076238436</v>
       </c>
       <c r="D19">
-        <v>-0.04899999999909199</v>
+        <v>-0.04900000000042661</v>
       </c>
       <c r="E19">
-        <v>-0.6636235815365727</v>
+        <v>-0.6636235824793493</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.99997497883425</v>
+        <v>0.9999749788342462</v>
       </c>
       <c r="C20">
-        <v>0.224948528588967</v>
+        <v>0.2394384057055946</v>
       </c>
       <c r="D20">
-        <v>-0.04199999999882226</v>
+        <v>-0.04199999999836908</v>
       </c>
       <c r="E20">
-        <v>0.7469843803282021</v>
+        <v>0.7469843808462976</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,13 +734,13 @@
         <v>1.0000534779554</v>
       </c>
       <c r="C21">
-        <v>0.2133116488873963</v>
+        <v>0.2278015259952622</v>
       </c>
       <c r="D21">
-        <v>-0.04199999999909546</v>
+        <v>-0.04199999999962995</v>
       </c>
       <c r="E21">
-        <v>0.2099276367836996</v>
+        <v>0.209927636398003</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.99992012441745</v>
+        <v>0.9999201244174717</v>
       </c>
       <c r="C22">
-        <v>0.2762470355678908</v>
+        <v>0.2907369126554896</v>
       </c>
       <c r="D22">
-        <v>-0.04200000000103171</v>
+        <v>-0.04200000000125986</v>
       </c>
       <c r="E22">
-        <v>5.313884845142469</v>
+        <v>5.31388484284335</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.000576128978829</v>
+        <v>1.000599999999979</v>
       </c>
       <c r="C23">
-        <v>0.1376636688891406</v>
+        <v>0.1494997929456079</v>
       </c>
       <c r="D23">
-        <v>-5.939637670593356e-12</v>
+        <v>-6.804032892659961e-10</v>
       </c>
       <c r="E23">
-        <v>-78.76799874964597</v>
+        <v>-81.82204788025294</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.9999999999999706</v>
       </c>
       <c r="C24">
-        <v>0.831787560552785</v>
+        <v>0.8478386835868799</v>
       </c>
       <c r="D24">
-        <v>-4.555941127831753e-13</v>
+        <v>-2.591629320002065e-10</v>
       </c>
       <c r="E24">
-        <v>0.08710609574487893</v>
+        <v>0.2559975470168256</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.999769900723529</v>
+        <v>0.9997699007235318</v>
       </c>
       <c r="C25">
-        <v>1.281396870480037</v>
+        <v>1.297447993508358</v>
       </c>
       <c r="D25">
-        <v>-7.000000000000267</v>
+        <v>-7.000000000001045</v>
       </c>
       <c r="E25">
-        <v>23.9979072439476</v>
+        <v>23.99790724370353</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.999779008807556</v>
+        <v>0.9997790088075567</v>
       </c>
       <c r="C26">
-        <v>1.074663944008463</v>
+        <v>1.090715067037111</v>
       </c>
       <c r="D26">
-        <v>5.622065313293234e-13</v>
+        <v>7.862183126761124e-13</v>
       </c>
       <c r="E26">
-        <v>1.443378940528925</v>
+        <v>1.443378940324558</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.000576128978829</v>
+        <v>1.000599999999979</v>
       </c>
       <c r="C27">
-        <v>0.1376636688891406</v>
+        <v>0.1494997929456079</v>
       </c>
       <c r="D27">
-        <v>-5.939637670593356e-12</v>
+        <v>-6.804032892659961e-10</v>
       </c>
       <c r="E27">
-        <v>-78.76799874964597</v>
+        <v>-81.82204788025294</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>1.000000000000007</v>
       </c>
       <c r="C28">
-        <v>0.2905789391187074</v>
+        <v>0.304761245419105</v>
       </c>
       <c r="D28">
-        <v>3.599707337764713e-12</v>
+        <v>-3.288229064035697e-11</v>
       </c>
       <c r="E28">
-        <v>3.834911898674092</v>
+        <v>4.171529408926449</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9997005556993189</v>
+        <v>0.9997005556993197</v>
       </c>
       <c r="C29">
-        <v>0.4168336494355581</v>
+        <v>0.4310159557377004</v>
       </c>
       <c r="D29">
-        <v>-0.400000000000647</v>
+        <v>-0.400000000022091</v>
       </c>
       <c r="E29">
-        <v>3.788409000954203</v>
+        <v>3.788409001081372</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9996237209868073</v>
+        <v>0.9996237209868081</v>
       </c>
       <c r="C30">
-        <v>0.5150375486430605</v>
+        <v>0.5292198549459598</v>
       </c>
       <c r="D30">
-        <v>-0.4000000000011875</v>
+        <v>-0.400000000022027</v>
       </c>
       <c r="E30">
-        <v>8.045616502358444</v>
+        <v>8.045616502456669</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.000298092425485</v>
+        <v>1.000298092425488</v>
       </c>
       <c r="C31">
-        <v>0.5099457738108349</v>
+        <v>0.5241280801138205</v>
       </c>
       <c r="D31">
-        <v>-0.3999999999961775</v>
+        <v>-0.4000000000031588</v>
       </c>
       <c r="E31">
-        <v>-9.425870143470886</v>
+        <v>-9.425870143577132</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.000259107248877</v>
+        <v>1.000259107248875</v>
       </c>
       <c r="C32">
-        <v>0.5690422831194921</v>
+        <v>0.5832245894232876</v>
       </c>
       <c r="D32">
-        <v>-0.3999999999966525</v>
+        <v>-0.4000000000033745</v>
       </c>
       <c r="E32">
-        <v>2.159019653864826</v>
+        <v>2.159019654020798</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.000312369854601</v>
+        <v>1.000312369854602</v>
       </c>
       <c r="C33">
-        <v>0.6011134447544257</v>
+        <v>0.6152957510578961</v>
       </c>
       <c r="D33">
-        <v>-0.4000000000006811</v>
+        <v>-0.4000000000041276</v>
       </c>
       <c r="E33">
-        <v>4.041312441562886</v>
+        <v>4.041312441530417</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.000602215656172</v>
+        <v>1.000602215656174</v>
       </c>
       <c r="C34">
-        <v>0.6033550870166391</v>
+        <v>0.6175373933199906</v>
       </c>
       <c r="D34">
-        <v>-0.4000000000000372</v>
+        <v>-0.399999999996291</v>
       </c>
       <c r="E34">
-        <v>-18.39828403207837</v>
+        <v>-18.39828403208596</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9995479719766737</v>
+        <v>0.9995479719766764</v>
       </c>
       <c r="C35">
-        <v>0.7324715426775374</v>
+        <v>0.7466538489808388</v>
       </c>
       <c r="D35">
-        <v>-0.4000000000013265</v>
+        <v>-0.400000000000728</v>
       </c>
       <c r="E35">
-        <v>20.24564163673316</v>
+        <v>20.24564163668481</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.000024771832484</v>
+        <v>1.000024771832486</v>
       </c>
       <c r="C36">
-        <v>0.6960026794376041</v>
+        <v>0.7101849857409915</v>
       </c>
       <c r="D36">
-        <v>-0.3999999999976575</v>
+        <v>-0.3999999999980175</v>
       </c>
       <c r="E36">
-        <v>-13.68278629376014</v>
+        <v>-13.68278629377882</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9996328653931441</v>
+        <v>0.9996328653931489</v>
       </c>
       <c r="C37">
-        <v>0.6282489841363084</v>
+        <v>0.6424312904389202</v>
       </c>
       <c r="D37">
-        <v>-0.400000000000958</v>
+        <v>-0.4000000000074668</v>
       </c>
       <c r="E37">
-        <v>13.26579966005612</v>
+        <v>13.265799659922</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.999572795205926</v>
+        <v>0.9995727952059271</v>
       </c>
       <c r="C38">
-        <v>0.6723019875419181</v>
+        <v>0.6864842938454327</v>
       </c>
       <c r="D38">
-        <v>1.764394186309914e-12</v>
+        <v>1.648098324480429e-12</v>
       </c>
       <c r="E38">
-        <v>9.413262923228483</v>
+        <v>9.413262923251832</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9996900346867544</v>
+        <v>0.9996900346867543</v>
       </c>
       <c r="C39">
-        <v>0.7027944026973075</v>
+        <v>0.7169767090012458</v>
       </c>
       <c r="D39">
-        <v>-0.400000000000431</v>
+        <v>-0.4000000000003133</v>
       </c>
       <c r="E39">
-        <v>0.9972776178835627</v>
+        <v>0.9972776178983512</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.000240558966567</v>
+        <v>1.000240558966568</v>
       </c>
       <c r="C40">
-        <v>0.4385176551170139</v>
+        <v>0.4526999614208178</v>
       </c>
       <c r="D40">
-        <v>5.095923683029469e-14</v>
+        <v>-1.182776099284411e-12</v>
       </c>
       <c r="E40">
-        <v>-8.158931199503694</v>
+        <v>-8.158931199493836</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1074,13 +1074,13 @@
         <v>1.000786197009713</v>
       </c>
       <c r="C41">
-        <v>0.3496229673028013</v>
+        <v>0.36380527360739</v>
       </c>
       <c r="D41">
-        <v>-0.6999999999999187</v>
+        <v>-0.7000000000005783</v>
       </c>
       <c r="E41">
-        <v>-9.845792622318335</v>
+        <v>-9.845792622249455</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1091,13 +1091,13 @@
         <v>1.000408788243711</v>
       </c>
       <c r="C42">
-        <v>0.592291089542346</v>
+        <v>0.6064733958461273</v>
       </c>
       <c r="D42">
-        <v>-0.3999999999994864</v>
+        <v>-0.4000000000056491</v>
       </c>
       <c r="E42">
-        <v>-10.19371130812764</v>
+        <v>-10.19371130817999</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.000475545840635</v>
+        <v>1.000475545840634</v>
       </c>
       <c r="C43">
-        <v>0.5757768749175435</v>
+        <v>0.589959181221587</v>
       </c>
       <c r="D43">
-        <v>6.843345334850426e-13</v>
+        <v>-6.65155430734643e-13</v>
       </c>
       <c r="E43">
-        <v>-5.233707496099759</v>
+        <v>-5.233707496080896</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9995848131452152</v>
+        <v>0.9995848131452133</v>
       </c>
       <c r="C44">
-        <v>0.9415847879895435</v>
+        <v>0.9557670942943588</v>
       </c>
       <c r="D44">
-        <v>-0.3999999999995907</v>
+        <v>-0.400000000001079</v>
       </c>
       <c r="E44">
-        <v>12.12598671275279</v>
+        <v>12.12598671278865</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1142,13 +1142,13 @@
         <v>1.00011238767836</v>
       </c>
       <c r="C45">
-        <v>0.70042241495075</v>
+        <v>0.7146047212546496</v>
       </c>
       <c r="D45">
-        <v>-1.227143386905993e-13</v>
+        <v>1.278491201794907e-13</v>
       </c>
       <c r="E45">
-        <v>4.353433053439674</v>
+        <v>4.353433053434671</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9995529982161122</v>
+        <v>0.9995529982161124</v>
       </c>
       <c r="C46">
-        <v>0.8192039603424677</v>
+        <v>0.8333862666466098</v>
       </c>
       <c r="D46">
-        <v>-0.5000000000000641</v>
+        <v>-0.4999999999999307</v>
       </c>
       <c r="E46">
-        <v>2.941877203889639</v>
+        <v>2.941877203918968</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9994972100534636</v>
+        <v>0.9994972100534627</v>
       </c>
       <c r="C47">
-        <v>0.9287913587528356</v>
+        <v>0.9429736650571167</v>
       </c>
       <c r="D47">
-        <v>-0.300000000000324</v>
+        <v>-0.3000000000003436</v>
       </c>
       <c r="E47">
-        <v>8.072087075543642</v>
+        <v>8.072087075574862</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.000576128978829</v>
+        <v>1.000599999999979</v>
       </c>
       <c r="C48">
-        <v>0.1376636688891406</v>
+        <v>0.1494997929456079</v>
       </c>
       <c r="D48">
-        <v>-5.939637670593356e-12</v>
+        <v>-6.804032892659961e-10</v>
       </c>
       <c r="E48">
-        <v>-78.76799874964597</v>
+        <v>-81.82204788025294</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000008</v>
       </c>
       <c r="C49">
-        <v>0.197406454793766</v>
+        <v>0.2178213278370268</v>
       </c>
       <c r="D49">
-        <v>7.415290603773883e-12</v>
+        <v>-2.574412905076429e-12</v>
       </c>
       <c r="E49">
-        <v>73.92786504210352</v>
+        <v>53.95129712733974</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.00120649839424</v>
+        <v>1.000700000000009</v>
       </c>
       <c r="C50">
-        <v>0.05886530115692676</v>
+        <v>0.1413860833182438</v>
       </c>
       <c r="D50">
-        <v>2.187389158692099e-12</v>
+        <v>1.792158088598228e-11</v>
       </c>
       <c r="E50">
-        <v>-124.0203353453325</v>
+        <v>-69.52168862738318</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.000684597441013</v>
+        <v>1.000399999999992</v>
       </c>
       <c r="C51">
-        <v>0.114505155060212</v>
+        <v>0.1754493700758464</v>
       </c>
       <c r="D51">
-        <v>-0.0175000000013306</v>
+        <v>-0.03499999998742297</v>
       </c>
       <c r="E51">
-        <v>-15.02236794054997</v>
+        <v>16.68759424836658</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.999802469988175</v>
+        <v>1.000500000000009</v>
       </c>
       <c r="C52">
-        <v>0.2105122637898938</v>
+        <v>0.1647078246772885</v>
       </c>
       <c r="D52">
-        <v>-0.01499999999830991</v>
+        <v>-0.03000000000192792</v>
       </c>
       <c r="E52">
-        <v>18.63918352680163</v>
+        <v>-16.57869745945102</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9993700281922667</v>
+        <v>1.000199999999993</v>
       </c>
       <c r="C53">
-        <v>0.2565400347464802</v>
+        <v>0.1984030011424019</v>
       </c>
       <c r="D53">
-        <v>-0.02000000001163854</v>
+        <v>-0.03999999998665889</v>
       </c>
       <c r="E53">
-        <v>78.54328631254776</v>
+        <v>10.46062432047728</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.00083253870058</v>
+        <v>1.000149999999993</v>
       </c>
       <c r="C54">
-        <v>0.09165814124140363</v>
+        <v>0.2039794320610423</v>
       </c>
       <c r="D54">
-        <v>-0.01999999999447077</v>
+        <v>-8.974524248750448e-12</v>
       </c>
       <c r="E54">
-        <v>-128.7575553459564</v>
+        <v>2.077724659856653</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9992071060924113</v>
+        <v>1.000029999999998</v>
       </c>
       <c r="C55">
-        <v>0.2724037943702069</v>
+        <v>0.217396558005239</v>
       </c>
       <c r="D55">
-        <v>-0.01750000000288104</v>
+        <v>-0.04500000001099712</v>
       </c>
       <c r="E55">
-        <v>67.31405733116078</v>
+        <v>28.97220568135782</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9999601175541516</v>
+        <v>1.000056000000001</v>
       </c>
       <c r="C56">
-        <v>0.1972269706518597</v>
+        <v>0.2156145239100115</v>
       </c>
       <c r="D56">
-        <v>-0.02249999999966557</v>
+        <v>-0.0649999999878438</v>
       </c>
       <c r="E56">
-        <v>70.40611882141889</v>
+        <v>-0.1643522222293929</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.00041045990427</v>
+        <v>1.000075000000016</v>
       </c>
       <c r="C57">
-        <v>0.1467076067571122</v>
+        <v>0.2141841576576106</v>
       </c>
       <c r="D57">
-        <v>-0.03250000000020881</v>
+        <v>-0.01499999999945605</v>
       </c>
       <c r="E57">
-        <v>-31.15093935525048</v>
+        <v>-0.03314925640285285</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.000110460370631</v>
+        <v>1.000090000000007</v>
       </c>
       <c r="C58">
-        <v>0.1797431626447225</v>
+        <v>0.2130167193517191</v>
       </c>
       <c r="D58">
-        <v>-0.007500000006052859</v>
+        <v>-0.04999999999982768</v>
       </c>
       <c r="E58">
-        <v>-8.508929018190829</v>
+        <v>-3.954892315516527</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9996780051435382</v>
+        <v>1.000010000000006</v>
       </c>
       <c r="C59">
-        <v>0.2276569936405029</v>
+        <v>0.2222029201407074</v>
       </c>
       <c r="D59">
-        <v>-0.02500000000092883</v>
+        <v>6.204897706751922e-12</v>
       </c>
       <c r="E59">
-        <v>49.22511583772375</v>
+        <v>17.81928797989706</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.00035863622865</v>
+        <v>1.00002699999999</v>
       </c>
       <c r="C60">
-        <v>0.1513507806994151</v>
+        <v>0.2205300004574725</v>
       </c>
       <c r="D60">
-        <v>-1.013011896588978e-11</v>
+        <v>-0.01225000001446733</v>
       </c>
       <c r="E60">
-        <v>-45.15811503187125</v>
+        <v>11.48585686172193</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.000028689684344</v>
+        <v>1.000320000000002</v>
       </c>
       <c r="C61">
-        <v>0.1879313257955858</v>
+        <v>0.1880135855794825</v>
       </c>
       <c r="D61">
-        <v>-0.006125000003764453</v>
+        <v>-0.01749999999825178</v>
       </c>
       <c r="E61">
-        <v>37.89464343639808</v>
+        <v>-22.60606326131886</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.00061125687639</v>
+        <v>1.000104495842711</v>
       </c>
       <c r="C62">
-        <v>0.1228177457425403</v>
+        <v>0.2121251527024888</v>
       </c>
       <c r="D62">
-        <v>-0.008750000003525063</v>
+        <v>-0.01539999999738114</v>
       </c>
       <c r="E62">
-        <v>-48.83669181944694</v>
+        <v>10.47389947409463</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.000104495842717</v>
+        <v>1.000294595884538</v>
       </c>
       <c r="C63">
-        <v>0.1793075863518792</v>
+        <v>0.190513673819049</v>
       </c>
       <c r="D63">
-        <v>-0.007699999997922563</v>
+        <v>-0.01225000000863635</v>
       </c>
       <c r="E63">
-        <v>24.56052184184449</v>
+        <v>-17.69148763178461</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.000294595884545</v>
+        <v>1.000214030884966</v>
       </c>
       <c r="C64">
-        <v>0.1584939635842617</v>
+        <v>0.1995091704515161</v>
       </c>
       <c r="D64">
-        <v>-0.006125000012687867</v>
+        <v>-0.01434999999899684</v>
       </c>
       <c r="E64">
-        <v>-0.7903543391694203</v>
+        <v>21.41763169736491</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,33 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.000214030884968</v>
+        <v>1.000574859636533</v>
       </c>
       <c r="C65">
-        <v>0.1674488626477279</v>
+        <v>0.1592356265305944</v>
       </c>
       <c r="D65">
-        <v>-0.007174999983136303</v>
+        <v>-1.801428450853848e-11</v>
       </c>
       <c r="E65">
-        <v>21.40366652823681</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>1.000574859636538</v>
-      </c>
-      <c r="C66">
-        <v>0.1271753187263969</v>
-      </c>
-      <c r="D66">
-        <v>4.629102656750206e-12</v>
-      </c>
-      <c r="E66">
-        <v>-17.51413970354078</v>
+        <v>-17.51413970337486</v>
       </c>
     </row>
   </sheetData>
